--- a/python/AIC Comparison.xlsx
+++ b/python/AIC Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Documents\GitHub\VPC\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E3CA6-10D6-4BF9-B693-5D5EB1CCEAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9628B1-4FB7-4997-9EA0-7644DA515DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="804" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27945" windowHeight="16440" tabRatio="804" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="103" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -185,13 +185,40 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Samples</t>
   </si>
   <si>
     <t>Combos</t>
+  </si>
+  <si>
+    <t>Viral/Dose</t>
+  </si>
+  <si>
+    <t>T Cell</t>
+  </si>
+  <si>
+    <t>Viral</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Est (s)</t>
+  </si>
+  <si>
+    <t>Est (min)</t>
+  </si>
+  <si>
+    <t>Est (hr)</t>
+  </si>
+  <si>
+    <t>Est (d)</t>
   </si>
 </sst>
 </file>
@@ -298,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -313,6 +340,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -53422,8 +53452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233CF783-202E-4D34-8828-2D6DB81DD846}">
   <dimension ref="C13:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G31" sqref="C31:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53521,6 +53551,12 @@
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="I18">
         <v>4</v>
       </c>
@@ -53530,6 +53566,18 @@
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
       <c r="I19">
         <v>5</v>
       </c>
@@ -53539,6 +53587,19 @@
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>E20*D20</f>
+        <v>3000</v>
+      </c>
       <c r="I20">
         <v>6</v>
       </c>
@@ -53547,7 +53608,44 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>4000</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F22" si="0">E21*D21</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>9000</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
     <row r="23" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <f>SUM(F20:F22)</f>
+        <v>24000</v>
+      </c>
       <c r="I23" t="s">
         <v>0</v>
       </c>
@@ -53646,6 +53744,12 @@
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="I30">
         <v>28</v>
       </c>
@@ -53661,16 +53765,13 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
         <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
       </c>
       <c r="F31" t="s">
         <v>31</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
       </c>
       <c r="I31">
         <v>29</v>
@@ -53687,18 +53788,14 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="F32">
         <f>E32*D32</f>
-        <v>6000</v>
-      </c>
-      <c r="G32">
-        <f>F32</f>
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="I32">
         <v>30</v>
@@ -53715,19 +53812,15 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <f>1000*C33^2</f>
-        <v>4000</v>
+        <f>100*C33^2</f>
+        <v>400</v>
       </c>
       <c r="E33">
         <v>15</v>
       </c>
       <c r="F33">
-        <f t="shared" ref="F33:F37" si="0">E33*D33</f>
-        <v>60000</v>
-      </c>
-      <c r="G33">
-        <f>F33</f>
-        <v>60000</v>
+        <f t="shared" ref="F33:F37" si="1">E33*D33</f>
+        <v>6000</v>
       </c>
       <c r="I33">
         <v>31</v>
@@ -53744,18 +53837,14 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D37" si="1">1000*C34^2</f>
-        <v>9000</v>
+        <f t="shared" ref="D34:D37" si="2">100*C34^2</f>
+        <v>900</v>
       </c>
       <c r="E34">
         <v>20</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>180000</v>
-      </c>
-      <c r="G34">
-        <f>F34*0.1</f>
+        <f t="shared" si="1"/>
         <v>18000</v>
       </c>
       <c r="I34" s="8">
@@ -53776,18 +53865,14 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>16000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="E35">
         <v>15</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>240000</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G37" si="2">F35*0.1</f>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="I35">
@@ -53805,18 +53890,14 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>25000</v>
+        <f t="shared" si="2"/>
+        <v>2500</v>
       </c>
       <c r="E36">
         <v>6</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>150000</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="I36">
@@ -53834,18 +53915,14 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>36000</v>
+        <f t="shared" si="2"/>
+        <v>3600</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3600</v>
       </c>
       <c r="I37">
@@ -53864,11 +53941,7 @@
       </c>
       <c r="F38">
         <f>SUM(F32:F37)</f>
-        <v>672000</v>
-      </c>
-      <c r="G38">
-        <f>SUM(G32:G37)</f>
-        <v>126600</v>
+        <v>67200</v>
       </c>
       <c r="I38">
         <v>36</v>
@@ -53881,6 +53954,9 @@
       </c>
     </row>
     <row r="39" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
       <c r="I39">
         <v>37</v>
       </c>
@@ -53892,6 +53968,13 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <f>18*F23</f>
+        <v>432000</v>
+      </c>
       <c r="I40" s="8">
         <v>38</v>
       </c>
@@ -53906,6 +53989,13 @@
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <f>12*F38</f>
+        <v>806400</v>
+      </c>
       <c r="I41">
         <v>39</v>
       </c>
@@ -53917,6 +54007,13 @@
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42">
+        <f>12*F23</f>
+        <v>288000</v>
+      </c>
       <c r="I42">
         <v>40</v>
       </c>
@@ -53928,6 +54025,13 @@
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <f>12*F38</f>
+        <v>806400</v>
+      </c>
       <c r="I43">
         <v>41</v>
       </c>
@@ -53938,7 +54042,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <f>SUM(D40:D43)</f>
+        <v>2332800</v>
+      </c>
+    </row>
     <row r="45" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <f>D44*0.3</f>
+        <v>699840</v>
+      </c>
       <c r="I45" t="s">
         <v>0</v>
       </c>
@@ -53965,6 +54085,13 @@
       </c>
     </row>
     <row r="46" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46">
+        <f>D45/60</f>
+        <v>11664</v>
+      </c>
       <c r="I46" s="8">
         <v>57</v>
       </c>
@@ -53979,6 +54106,13 @@
       </c>
     </row>
     <row r="47" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <f>D46/60</f>
+        <v>194.4</v>
+      </c>
       <c r="I47" s="8">
         <v>58</v>
       </c>
@@ -53993,6 +54127,13 @@
       </c>
     </row>
     <row r="48" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <f>D47/24</f>
+        <v>8.1</v>
+      </c>
       <c r="I48" s="8">
         <v>59</v>
       </c>
@@ -54484,6 +54625,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C30:F30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="O14" numberStoredAsText="1"/>
